--- a/xlsx/联邦条例_intext.xlsx
+++ b/xlsx/联邦条例_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美国国家档案馆</t>
   </si>
   <si>
-    <t>政策_政策_美國_联邦条例</t>
+    <t>政策_政策_美国_联邦条例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%86%E4%BC%9A%E8%AE%AE</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8C%97%E7%BE%8E</t>
   </si>
   <si>
-    <t>英屬北美</t>
+    <t>英属北美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B9%86%E7%88%BE%C2%B7%E4%BA%A8%E5%BB%B7%E9%A0%93</t>
   </si>
   <si>
-    <t>塞繆爾·亨廷頓</t>
+    <t>塞缪尔·亨廷顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E5%85%8B%E9%8E%AE%E5%9C%8D%E5%9F%8E%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>約克鎮圍城戰役</t>
+    <t>约克镇围城战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%AF%BA%E5%85%8B%E6%96%AF</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>西北領地</t>
+    <t>西北领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E4%BC%8A%E6%96%AF%E8%B5%B7%E4%B9%89</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>啟蒙時期</t>
+    <t>启蒙时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E8%8E%B1%E7%BA%B3%E5%B7%9E</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
